--- a/Iran_Groups.xlsx
+++ b/Iran_Groups.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f43110b82ea3628/Documents/Cyber_Security/Github/inquisitorial-codex-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{0FFE3ACC-C4E9-4A44-B043-6F7B93F1DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1417D78E-38FE-460C-82BC-A89DCF0C9F05}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{0FFE3ACC-C4E9-4A44-B043-6F7B93F1DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58139323-490F-4822-980F-F540CE91D9AC}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1230" windowWidth="21990" windowHeight="14940" activeTab="1" xr2:uid="{8A54428F-4D02-4C1E-A866-24DAC227C514}"/>
+    <workbookView xWindow="3560" yWindow="330" windowWidth="21990" windowHeight="14940" xr2:uid="{8A54428F-4D02-4C1E-A866-24DAC227C514}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Iran" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="619">
   <si>
     <t>Domain</t>
   </si>
@@ -1210,250 +1209,46 @@
     </r>
   </si>
   <si>
-    <t>Associated Groups</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>G1030</t>
   </si>
   <si>
-    <t>Agrius</t>
-  </si>
-  <si>
-    <t>Pink Sandstorm, AMERICIUM, Agonizing Serpens, BlackShadow</t>
-  </si>
-  <si>
     <t>G0130</t>
   </si>
   <si>
-    <t>Ajax Security Team</t>
-  </si>
-  <si>
-    <t>Operation Woolen-Goldfish, AjaxTM, Rocket Kitten, Flying Kitten, Operation Saffron Rose</t>
-  </si>
-  <si>
     <t>G0064</t>
   </si>
   <si>
-    <t>APT33</t>
-  </si>
-  <si>
-    <t>HOLMIUM, Elfin, Peach Sandstorm</t>
-  </si>
-  <si>
-    <t>APT33 is a suspected Iranian threat group that has carried out operations since at least 2013. The group has targeted organizations across multiple industries in the United States, Saudi Arabia, and South Korea, with a particular interest in the aviation and energy sectors.</t>
-  </si>
-  <si>
     <t>G0087</t>
   </si>
   <si>
-    <t>APT39</t>
-  </si>
-  <si>
-    <t>ITG07, Chafer, Remix Kitten</t>
-  </si>
-  <si>
     <t>G1044</t>
   </si>
   <si>
-    <t>APT42</t>
-  </si>
-  <si>
     <t>G0003</t>
   </si>
   <si>
-    <t>Cleaver</t>
-  </si>
-  <si>
-    <t>Threat Group 2889, TG-2889</t>
-  </si>
-  <si>
-    <t>Cleaver is a threat group that has been attributed to Iranian actors and is responsible for activity tracked as Operation Cleaver. Strong circumstantial evidence suggests Cleaver is linked to Threat Group 2889 (TG-2889).</t>
-  </si>
-  <si>
     <t>G0052</t>
   </si>
   <si>
-    <t>CopyKittens</t>
-  </si>
-  <si>
-    <t>CopyKittens is an Iranian cyber espionage group that has been operating since at least 2013. It has targeted countries including Israel, Saudi Arabia, Turkey, the U.S., Jordan, and Germany. The group is responsible for the campaign known as Operation Wilted Tulip.</t>
-  </si>
-  <si>
     <t>G1012</t>
   </si>
   <si>
-    <t>CURIUM</t>
-  </si>
-  <si>
-    <t>Crimson Sandstorm, TA456, Tortoise Shell, Yellow Liderc</t>
-  </si>
-  <si>
     <t>G1027</t>
   </si>
   <si>
-    <t>CyberAv3ngers</t>
-  </si>
-  <si>
-    <t>Soldiers of Soloman</t>
-  </si>
-  <si>
     <t>G0137</t>
   </si>
   <si>
-    <t>Ferocious Kitten</t>
-  </si>
-  <si>
-    <t>Ferocious Kitten is a threat group that has primarily targeted Persian-speaking individuals in Iran since at least 2015.</t>
-  </si>
-  <si>
     <t>G0117</t>
   </si>
   <si>
-    <t>Fox Kitten</t>
-  </si>
-  <si>
-    <t>UNC757, Parisite, Pioneer Kitten, RUBIDIUM, Lemon Sandstorm</t>
-  </si>
-  <si>
     <t>G0043</t>
   </si>
   <si>
-    <t>Group5</t>
-  </si>
-  <si>
     <t>G0077</t>
   </si>
   <si>
-    <t>Leafminer</t>
-  </si>
-  <si>
-    <t>Raspite</t>
-  </si>
-  <si>
-    <t>Leafminer is an Iranian threat group that has targeted government organizations and business entities in the Middle East since at least early 2017.</t>
-  </si>
-  <si>
     <t>G0059</t>
-  </si>
-  <si>
-    <t>Magic Hound</t>
-  </si>
-  <si>
-    <t>TA453, COBALT ILLUSION, Charming Kitten, ITG18, Phosphorus, Newscaster, APT35, Mint Sandstorm</t>
-  </si>
-  <si>
-    <t>Magic Hound is an Iranian-sponsored threat group that conducts long term, resource-intensive cyber espionage operations, likely on behalf of the Islamic Revolutionary Guard Corps. They have targeted European, U.S., and Middle Eastern government and military personnel, academics, journalists, and organizations such as the World Health Organization (WHO), via complex social engineering campaigns since at least 2014.</t>
-  </si>
-  <si>
-    <t>G1009</t>
-  </si>
-  <si>
-    <t>Moses Staff</t>
-  </si>
-  <si>
-    <t>DEV-0500, Marigold Sandstorm</t>
-  </si>
-  <si>
-    <t>G0069</t>
-  </si>
-  <si>
-    <t>MuddyWater</t>
-  </si>
-  <si>
-    <t>Earth Vetala, MERCURY, Static Kitten, Seedworm, TEMP.Zagros, Mango Sandstorm, TA450</t>
-  </si>
-  <si>
-    <t>G0049</t>
-  </si>
-  <si>
-    <t>OilRig</t>
-  </si>
-  <si>
-    <t>COBALT GYPSY, IRN2, APT34, Helix Kitten, Evasive Serpens, Hazel Sandstorm, EUROPIUM, ITG13, Earth Simnavaz, Crambus, TA452</t>
-  </si>
-  <si>
-    <t>OilRig is a suspected Iranian threat group that has targeted Middle Eastern and international victims since at least 2014. The group has targeted a variety of sectors, including financial, government, energy, chemical, and telecommunications. It appears the group carries out supply chain attacks, leveraging the trust relationship between organizations to attack their primary targets. The group works on behalf of the Iranian government based on infrastructure details that contain references to Iran, use of Iranian infrastructure, and targeting that aligns with nation-state interests.</t>
-  </si>
-  <si>
-    <t>G1005</t>
-  </si>
-  <si>
-    <t>POLONIUM</t>
-  </si>
-  <si>
-    <t>Plaid Rain</t>
-  </si>
-  <si>
-    <t>G0122</t>
-  </si>
-  <si>
-    <t>Silent Librarian</t>
-  </si>
-  <si>
-    <t>TA407, COBALT DICKENS</t>
-  </si>
-  <si>
-    <t>G0041</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>ProjectSauron</t>
-  </si>
-  <si>
-    <t>Strider is a threat group that has been active since at least 2011 and has targeted victims in Russia, China, Sweden, Belgium, Iran, and Rwanda.</t>
-  </si>
-  <si>
-    <t>G1029</t>
-  </si>
-  <si>
-    <t>UNC788</t>
-  </si>
-  <si>
-    <t>UNC788 is a group of hackers from Iran that has targeted people in the Middle East.</t>
-  </si>
-  <si>
-    <t>Agrius is an Iranian threat actor active since 2020 notable for a series of ransomware and wiper operations in the Middle East, with an emphasis on Israeli targets. Public reporting has linked Agrius to Iran's Ministry of Intelligence and Security (MOIS).</t>
-  </si>
-  <si>
-    <t>Ajax Security Team is a group that has been active since at least 2010 and believed to be operating out of Iran. By 2014 Ajax Security Team transitioned from website defacement operations to malware-based cyber espionage campaigns targeting the US defense industrial base and Iranian users of anti-censorship technologies.</t>
-  </si>
-  <si>
-    <t>APT39 is one of several names for cyber espionage activity conducted by the Iranian Ministry of Intelligence and Security (MOIS) through the front company Rana Intelligence Computing since at least 2014. APT39 has primarily targeted the travel, hospitality, academic, and telecommunications industries in Iran and across Asia, Africa, Europe, and North America to track individuals and entities considered to be a threat by the MOIS.</t>
-  </si>
-  <si>
-    <t>APT42 is an Iranian-sponsored threat group that conducts cyber espionage and surveillance. The group primarily focuses on targets in the Middle East region, but has targeted a variety of industries and countries since at least 2015. APT42 starts cyber operations through spearphishing emails and/or the PINEFLOWER Android malware, then monitors and collects information from the compromised systems and devices. Finally, APT42 exfiltrates data using native features and open-source tools.
-APT42 activities have been linked to Magic Hound by other commercial vendors. While there are behavior and software overlaps between Magic Hound and APT42, they appear to be distinct entities and are tracked as separate entities by their originating vendor.</t>
-  </si>
-  <si>
-    <t>CURIUM is an Iranian threat group, first reported in September 2019 and active since at least July 2018, targeting IT service providers in the Middle East. CURIUM has since invested in building relationships with potential targets via social media over a period of months to establish trust and confidence before sending malware. Security researchers note CURIUM has demonstrated great patience and persistence by chatting with potential targets daily and sending benign files to help lower their security consciousness.</t>
-  </si>
-  <si>
-    <t>The CyberAv3ngers are a suspected Iranian Government Islamic Revolutionary Guard Corps (IRGC)-affiliated APT group. The CyberAv3ngers have been known to be active since at least 2020, with disputed and false claims of critical infrastructure compromises in Israel.
-In 2023, the CyberAv3ngers engaged in a global targeting and hacking of the Unitronics Programmable Logic Controller (PLC) with Human-Machine Interface (HMI). This PLC can be found in multiple sectors, including water and wastewater, energy, food and beverage manufacturing, and healthcare. The most notable feature of this attack was the defacement of the devices user interface.</t>
-  </si>
-  <si>
-    <t>Fox Kitten is threat actor with a suspected nexus to the Iranian government that has been active since at least 2017 against entities in the Middle East, North Africa, Europe, Australia, and North America. Fox Kitten has targeted multiple industrial verticals including oil and gas, technology, government, defense, healthcare, manufacturing, and engineering.</t>
-  </si>
-  <si>
-    <t>Group5 is a threat group with a suspected Iranian nexus, though this attribution is not definite. The group has targeted individuals connected to the Syrian opposition via spearphishing and watering holes, normally using Syrian and Iranian themes. Group5 has used two commonly available remote access tools (RATs), njRAT and NanoCore, as well as an Android RAT, DroidJack.</t>
-  </si>
-  <si>
-    <t>Moses Staff is a suspected Iranian threat group that has primarily targeted Israeli companies since at least September 2021. Moses Staff openly stated their motivation in attacking Israeli companies is to cause damage by leaking stolen sensitive data and encrypting the victim's networks without a ransom demand.
-Security researchers assess Moses Staff is politically motivated, and has targeted government, finance, travel, energy, manufacturing, and utility companies outside of Israel as well, including those in Italy, India, Germany, Chile, Turkey, the UAE, and the US.</t>
-  </si>
-  <si>
-    <t>MuddyWater is a cyber espionage group assessed to be a subordinate element within Iran's Ministry of Intelligence and Security (MOIS). Since at least 2017, MuddyWater has targeted a range of government and private organizations across sectors, including telecommunications, local government, defense, and oil and natural gas organizations, in the Middle East, Asia, Africa, Europe, and North America.</t>
-  </si>
-  <si>
-    <t>POLONIUM is a Lebanon-based group that has primarily targeted Israeli organizations, including critical manufacturing, information technology, and defense industry companies, since at least February 2022. Security researchers assess POLONIUM has coordinated their operations with multiple actors affiliated with Iran’s Ministry of Intelligence and Security (MOIS), based on victim overlap as well as common techniques and tooling.</t>
-  </si>
-  <si>
-    <t>Silent Librarian is a group that has targeted research and proprietary data at universities, government agencies, and private sector companies worldwide since at least 2013. Members of Silent Librarian are known to have been affiliated with the Iran-based Mabna Institute which has conducted cyber intrusions at the behest of the government of Iran, specifically the Islamic Revolutionary Guard Corps (IRGC).</t>
   </si>
   <si>
     <t>T1555</t>
@@ -12054,7 +11849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12100,30 +11895,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -12274,7 +12045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12351,34 +12122,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12718,376 +12465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7F68F-84D2-422F-9B30-B9475B5C2045}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.7265625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="24" style="27" customWidth="1"/>
-    <col min="4" max="4" width="121.90625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="29" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="29" customFormat="1" ht="140" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="29" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="124.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="29" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="29" customFormat="1" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="29" customFormat="1" ht="109" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="29" customFormat="1" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="29" customFormat="1" ht="124.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="29" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="29" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="29" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="https://attack.mitre.org/groups/G1029" xr:uid="{9DAC3EC1-FD63-4F7D-8EEF-B3DC7CFE8D54}"/>
-    <hyperlink ref="A22" r:id="rId2" display="https://attack.mitre.org/groups/G1029" xr:uid="{7C32BB0D-FD12-4A69-83A4-26812053C701}"/>
-    <hyperlink ref="B21" r:id="rId3" display="https://attack.mitre.org/groups/G0041" xr:uid="{3518996F-8F68-4EFF-BE2B-F8FDB6A5FFCB}"/>
-    <hyperlink ref="A21" r:id="rId4" display="https://attack.mitre.org/groups/G0041" xr:uid="{C2A9D2AB-C713-4C40-9DF3-19A0C01EB2A6}"/>
-    <hyperlink ref="B20" r:id="rId5" display="https://attack.mitre.org/groups/G0122" xr:uid="{0D568FC6-4577-4DE8-A19B-79E9362A8CDD}"/>
-    <hyperlink ref="A20" r:id="rId6" display="https://attack.mitre.org/groups/G0122" xr:uid="{8463FF99-AF30-4AE5-81EB-8B965D500DDF}"/>
-    <hyperlink ref="B19" r:id="rId7" display="https://attack.mitre.org/groups/G1005" xr:uid="{250FD776-881F-4114-9F65-0B67596CFFAD}"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://attack.mitre.org/groups/G1005" xr:uid="{6E57D23C-DD1A-407F-9863-443E4C290BB2}"/>
-    <hyperlink ref="B18" r:id="rId9" display="https://attack.mitre.org/groups/G0049" xr:uid="{5280CC97-5A5A-4639-80BB-CCA0CB653401}"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://attack.mitre.org/groups/G0049" xr:uid="{CBAA0C41-689C-4300-ADFE-65BDB9500A18}"/>
-    <hyperlink ref="B17" r:id="rId11" display="https://attack.mitre.org/groups/G0069" xr:uid="{D17AB061-E1C0-46F2-8871-567C0A44CF85}"/>
-    <hyperlink ref="A17" r:id="rId12" display="https://attack.mitre.org/groups/G0069" xr:uid="{6AEDC606-7E66-43F7-B1D0-BF25A5A323AA}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://attack.mitre.org/groups/G0059" xr:uid="{94080E02-FF96-4E87-AB08-9EFEF42B9ADB}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://attack.mitre.org/groups/G0059" xr:uid="{06CE7D4B-3FCA-4B61-AA2F-5767A293E712}"/>
-    <hyperlink ref="B14" r:id="rId15" display="https://attack.mitre.org/groups/G0077" xr:uid="{9DB60E6E-27E5-4F94-8045-E598156E19D2}"/>
-    <hyperlink ref="A14" r:id="rId16" display="https://attack.mitre.org/groups/G0077" xr:uid="{549F550E-20C6-4E86-8C64-8831C0836EA3}"/>
-    <hyperlink ref="B13" r:id="rId17" display="https://attack.mitre.org/groups/G0043" xr:uid="{F6C7782A-8D9C-46F1-BDD6-FF0BB36983CB}"/>
-    <hyperlink ref="A13" r:id="rId18" display="https://attack.mitre.org/groups/G0043" xr:uid="{5D1783C6-F282-4AE9-AAD0-5FF06D7071FC}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://attack.mitre.org/groups/G0117" xr:uid="{F1F72599-ED3C-4F57-B27D-2CFFEABF6160}"/>
-    <hyperlink ref="A12" r:id="rId20" display="https://attack.mitre.org/groups/G0117" xr:uid="{F31255F3-FD3D-40BE-B878-B16124AFE725}"/>
-    <hyperlink ref="B11" r:id="rId21" display="https://attack.mitre.org/groups/G0137" xr:uid="{572FD524-4C83-47A5-8BEF-7C17F17F3CEE}"/>
-    <hyperlink ref="A11" r:id="rId22" display="https://attack.mitre.org/groups/G0137" xr:uid="{7325B564-C186-4213-8479-9DFA25CBDCE7}"/>
-    <hyperlink ref="B10" r:id="rId23" display="https://attack.mitre.org/groups/G1027" xr:uid="{20F1785F-6582-41D7-8E59-5F6FBC2F2621}"/>
-    <hyperlink ref="A10" r:id="rId24" display="https://attack.mitre.org/groups/G1027" xr:uid="{EC904323-0FC5-44EC-BAFA-4F12527EE29C}"/>
-    <hyperlink ref="B9" r:id="rId25" display="https://attack.mitre.org/groups/G1012" xr:uid="{05D3BBD5-2FAA-412C-9707-5E10B084C3D6}"/>
-    <hyperlink ref="A9" r:id="rId26" display="https://attack.mitre.org/groups/G1012" xr:uid="{8FB6AF1F-E251-469F-8F90-D78C9C24C4DD}"/>
-    <hyperlink ref="B8" r:id="rId27" display="https://attack.mitre.org/groups/G0052" xr:uid="{1B998B6D-831A-4A7D-81B7-08A2A0F28731}"/>
-    <hyperlink ref="A8" r:id="rId28" display="https://attack.mitre.org/groups/G0052" xr:uid="{41B2F508-1FD7-4BAB-9087-81F81F996389}"/>
-    <hyperlink ref="B7" r:id="rId29" display="https://attack.mitre.org/groups/G0003" xr:uid="{2016E02F-4945-4457-959C-BB43865B280D}"/>
-    <hyperlink ref="A7" r:id="rId30" display="https://attack.mitre.org/groups/G0003" xr:uid="{AE38D19B-FAEA-4412-A496-E4012AA7F98A}"/>
-    <hyperlink ref="B6" r:id="rId31" display="https://attack.mitre.org/groups/G1044" xr:uid="{A5B35D37-2072-4B31-AA1B-79B8A424802C}"/>
-    <hyperlink ref="A6" r:id="rId32" display="https://attack.mitre.org/groups/G1044" xr:uid="{D1C209C9-6170-431E-974D-5FB7E3C82EA8}"/>
-    <hyperlink ref="B5" r:id="rId33" display="https://attack.mitre.org/groups/G0087" xr:uid="{8DB41643-D8FA-4367-A4D0-69ACC4FAEF77}"/>
-    <hyperlink ref="A5" r:id="rId34" display="https://attack.mitre.org/groups/G0087" xr:uid="{383DAB05-F083-46B8-BFDC-F70B790E92A9}"/>
-    <hyperlink ref="B4" r:id="rId35" display="https://attack.mitre.org/groups/G0064" xr:uid="{7561C601-1179-4B0C-B498-E51939D9A6F6}"/>
-    <hyperlink ref="A4" r:id="rId36" display="https://attack.mitre.org/groups/G0064" xr:uid="{6A44B858-E49E-4554-B5BE-DC850CF6BC88}"/>
-    <hyperlink ref="B3" r:id="rId37" display="https://attack.mitre.org/groups/G0130" xr:uid="{527594BA-2207-45DC-9560-F9CF9E20FE17}"/>
-    <hyperlink ref="A3" r:id="rId38" display="https://attack.mitre.org/groups/G0130" xr:uid="{56E6DD05-2D97-4E29-844C-A9D68D2123B2}"/>
-    <hyperlink ref="B2" r:id="rId39" display="https://attack.mitre.org/groups/G1030" xr:uid="{973DA12A-A69F-44EF-94DD-62B880ACA39A}"/>
-    <hyperlink ref="A2" r:id="rId40" display="https://attack.mitre.org/groups/G1030" xr:uid="{20A62E77-9F3B-4935-8A41-97AC166B226B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BC371E-8CC3-458D-9A4C-BE974CBEF152}">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13117,8 +12499,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>71</v>
+      <c r="A2" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>4</v>
@@ -13135,8 +12517,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
-        <v>71</v>
+      <c r="A3" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>4</v>
@@ -13155,8 +12537,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
-        <v>71</v>
+      <c r="A4" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -13173,8 +12555,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
-        <v>71</v>
+      <c r="A5" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>4</v>
@@ -13191,8 +12573,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
-        <v>71</v>
+      <c r="A6" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -13207,8 +12589,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
-        <v>71</v>
+      <c r="A7" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>4</v>
@@ -13227,8 +12609,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
-        <v>71</v>
+      <c r="A8" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>4</v>
@@ -13247,8 +12629,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
-        <v>71</v>
+      <c r="A9" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>4</v>
@@ -13265,8 +12647,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
-        <v>71</v>
+      <c r="A10" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>4</v>
@@ -13285,8 +12667,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
-        <v>71</v>
+      <c r="A11" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>4</v>
@@ -13303,8 +12685,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
-        <v>71</v>
+      <c r="A12" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>4</v>
@@ -13321,8 +12703,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
-        <v>71</v>
+      <c r="A13" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>4</v>
@@ -13339,8 +12721,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
-        <v>71</v>
+      <c r="A14" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>4</v>
@@ -13359,8 +12741,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
-        <v>71</v>
+      <c r="A15" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>4</v>
@@ -13377,8 +12759,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
-        <v>71</v>
+      <c r="A16" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>4</v>
@@ -13395,8 +12777,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30" t="s">
-        <v>71</v>
+      <c r="A17" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>4</v>
@@ -13413,8 +12795,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
-        <v>71</v>
+      <c r="A18" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>4</v>
@@ -13433,8 +12815,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
-        <v>71</v>
+      <c r="A19" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -13449,8 +12831,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
-        <v>71</v>
+      <c r="A20" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>4</v>
@@ -13469,8 +12851,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
-        <v>71</v>
+      <c r="A21" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>4</v>
@@ -13487,8 +12869,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30" t="s">
-        <v>71</v>
+      <c r="A22" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>4</v>
@@ -13507,8 +12889,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="30" t="s">
-        <v>71</v>
+      <c r="A23" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>4</v>
@@ -13527,86 +12909,86 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="30" t="s">
-        <v>74</v>
+      <c r="A24" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="30" t="s">
-        <v>74</v>
+      <c r="A25" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30" t="s">
-        <v>74</v>
+      <c r="A26" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3">
         <v>1E-3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
-        <v>74</v>
+      <c r="A27" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3">
         <v>1E-3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="30" t="s">
-        <v>74</v>
+      <c r="A28" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -13614,55 +12996,55 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
-        <v>74</v>
+      <c r="A29" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3">
         <v>2E-3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="30" t="s">
-        <v>77</v>
+      <c r="A30" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D30" s="3">
         <v>1E-3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="30" t="s">
-        <v>77</v>
+      <c r="A31" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -13677,32 +13059,32 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30" t="s">
-        <v>77</v>
+      <c r="A32" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D32" s="3">
         <v>1E-3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="30" t="s">
-        <v>77</v>
+      <c r="A33" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
@@ -13714,15 +13096,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="30" t="s">
-        <v>77</v>
+      <c r="A34" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -13734,15 +13116,15 @@
         <v>1E-3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30" t="s">
-        <v>77</v>
+      <c r="A35" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -13750,33 +13132,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="30" t="s">
-        <v>77</v>
+      <c r="A36" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30" t="s">
-        <v>77</v>
+      <c r="A37" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -13784,225 +13166,225 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="30" t="s">
-        <v>77</v>
+      <c r="A38" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="D38" s="3">
         <v>1E-3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
-        <v>77</v>
+      <c r="A39" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="D39" s="3">
         <v>1E-3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="30" t="s">
-        <v>77</v>
+      <c r="A40" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="D40" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="30" t="s">
-        <v>77</v>
+      <c r="A41" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="30" t="s">
-        <v>77</v>
+      <c r="A42" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="30" t="s">
-        <v>77</v>
+      <c r="A43" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="30" t="s">
-        <v>77</v>
+      <c r="A44" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="30" t="s">
-        <v>77</v>
+      <c r="A45" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="30" t="s">
-        <v>77</v>
+      <c r="A46" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="3" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="30" t="s">
-        <v>77</v>
+      <c r="A47" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D47" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="30" t="s">
-        <v>77</v>
+      <c r="A48" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D48" s="3">
         <v>2E-3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="30" t="s">
-        <v>77</v>
+      <c r="A49" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -14017,12 +13399,12 @@
         <v>53</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="30" t="s">
-        <v>77</v>
+      <c r="A50" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -14030,15 +13412,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="30" t="s">
-        <v>77</v>
+      <c r="A51" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -14046,35 +13428,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="30" t="s">
-        <v>77</v>
+      <c r="A52" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3">
         <v>1E-3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="30" t="s">
-        <v>77</v>
+      <c r="A53" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -14082,55 +13464,55 @@
         <v>2E-3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="30" t="s">
-        <v>77</v>
+      <c r="A54" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D54" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="30" t="s">
-        <v>77</v>
+      <c r="A55" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D55" s="3">
         <v>1E-3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="30" t="s">
-        <v>77</v>
+      <c r="A56" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -14138,35 +13520,35 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="30" t="s">
-        <v>77</v>
+      <c r="A57" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D57" s="3">
         <v>1E-3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="30" t="s">
-        <v>77</v>
+      <c r="A58" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -14174,15 +13556,15 @@
         <v>2E-3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="30" t="s">
-        <v>77</v>
+      <c r="A59" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
@@ -14192,15 +13574,15 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="30" t="s">
-        <v>77</v>
+      <c r="A60" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -14208,89 +13590,89 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="30" t="s">
-        <v>77</v>
+      <c r="A61" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30" t="s">
-        <v>77</v>
+      <c r="A62" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="3" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30" t="s">
-        <v>77</v>
+      <c r="A63" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="3" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="30" t="s">
-        <v>81</v>
+      <c r="A64" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D64" s="3">
         <v>1E-3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="30" t="s">
-        <v>81</v>
+      <c r="A65" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -14298,15 +13680,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="30" t="s">
-        <v>81</v>
+      <c r="A66" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -14321,50 +13703,50 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="30" t="s">
-        <v>81</v>
+      <c r="A67" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="3" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="30" t="s">
-        <v>81</v>
+      <c r="A68" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D68" s="3">
         <v>1E-3</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="30" t="s">
-        <v>81</v>
+      <c r="A69" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -14372,15 +13754,15 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="30" t="s">
-        <v>81</v>
+      <c r="A70" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
@@ -14393,30 +13775,30 @@
         <v>15</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="30" t="s">
-        <v>81</v>
+      <c r="A71" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="30" t="s">
-        <v>81</v>
+      <c r="A72" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -14426,15 +13808,15 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="30" t="s">
-        <v>81</v>
+      <c r="A73" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -14442,15 +13824,15 @@
         <v>1E-3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="30" t="s">
-        <v>81</v>
+      <c r="A74" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -14458,15 +13840,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="30" t="s">
-        <v>81</v>
+      <c r="A75" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -14474,15 +13856,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="30" t="s">
-        <v>81</v>
+      <c r="A76" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -14490,53 +13872,53 @@
         <v>0.01</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="30" t="s">
-        <v>81</v>
+      <c r="A77" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D77" s="3">
         <v>1E-3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="30" t="s">
-        <v>81</v>
+      <c r="A78" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="30" t="s">
-        <v>81</v>
+      <c r="A79" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -14549,12 +13931,12 @@
         <v>26</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="30" t="s">
-        <v>81</v>
+      <c r="A80" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -14569,12 +13951,12 @@
         <v>29</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="30" t="s">
-        <v>81</v>
+      <c r="A81" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -14587,32 +13969,32 @@
         <v>32</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="30" t="s">
-        <v>81</v>
+      <c r="A82" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3">
         <v>0.01</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="30" t="s">
-        <v>81</v>
+      <c r="A83" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -14625,12 +14007,12 @@
         <v>35</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="30" t="s">
-        <v>81</v>
+      <c r="A84" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
@@ -14643,86 +14025,86 @@
         <v>38</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="30" t="s">
-        <v>81</v>
+      <c r="A85" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="30" t="s">
-        <v>81</v>
+      <c r="A86" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="D86" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="30" t="s">
-        <v>81</v>
+      <c r="A87" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="30" t="s">
-        <v>81</v>
+      <c r="A88" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="3" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="30" t="s">
-        <v>81</v>
+      <c r="A89" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -14730,15 +14112,15 @@
         <v>1E-3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="30" t="s">
-        <v>81</v>
+      <c r="A90" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -14750,15 +14132,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="30" t="s">
-        <v>81</v>
+      <c r="A91" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
@@ -14771,50 +14153,50 @@
         <v>50</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="30" t="s">
-        <v>81</v>
+      <c r="A92" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="3" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="30" t="s">
-        <v>81</v>
+      <c r="A93" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D93" s="3">
         <v>2E-3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="30" t="s">
-        <v>81</v>
+      <c r="A94" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -14822,35 +14204,35 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="30" t="s">
-        <v>81</v>
+      <c r="A95" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D95" s="3">
         <v>2E-3</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="30" t="s">
-        <v>81</v>
+      <c r="A96" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
@@ -14860,15 +14242,15 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="3" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="30" t="s">
-        <v>81</v>
+      <c r="A97" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -14876,35 +14258,35 @@
         <v>1E-3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="30" t="s">
-        <v>81</v>
+      <c r="A98" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D98" s="3">
         <v>1E-3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="30" t="s">
-        <v>81</v>
+      <c r="A99" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -14912,35 +14294,35 @@
         <v>2E-3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="30" t="s">
-        <v>81</v>
+      <c r="A100" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="D100" s="3">
         <v>1E-3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="30" t="s">
-        <v>81</v>
+      <c r="A101" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -14948,33 +14330,33 @@
         <v>2E-3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="30" t="s">
-        <v>81</v>
+      <c r="A102" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="3" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="30" t="s">
-        <v>81</v>
+      <c r="A103" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -14989,12 +14371,12 @@
         <v>58</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="30" t="s">
-        <v>81</v>
+      <c r="A104" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -15002,15 +14384,15 @@
         <v>2E-3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="30" t="s">
-        <v>81</v>
+      <c r="A105" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -15018,15 +14400,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="30" t="s">
-        <v>81</v>
+      <c r="A106" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
@@ -15039,50 +14421,50 @@
         <v>61</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="30" t="s">
-        <v>81</v>
+      <c r="A107" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D107" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="30" t="s">
-        <v>81</v>
+      <c r="A108" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="30" t="s">
-        <v>81</v>
+      <c r="A109" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -15097,90 +14479,90 @@
         <v>64</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="30" t="s">
-        <v>81</v>
+      <c r="A110" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="D110" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="30" t="s">
-        <v>81</v>
+      <c r="A111" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="3" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="30" t="s">
-        <v>81</v>
+      <c r="A112" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="D112" s="3">
         <v>2E-3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="30" t="s">
-        <v>81</v>
+      <c r="A113" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D113" s="3">
         <v>1E-3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="30" t="s">
-        <v>81</v>
+      <c r="A114" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -15188,15 +14570,15 @@
         <v>2E-3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="30" t="s">
-        <v>81</v>
+      <c r="A115" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
@@ -15206,55 +14588,55 @@
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="30" t="s">
-        <v>81</v>
+      <c r="A116" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D116" s="3">
         <v>2E-3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="31" t="s">
-        <v>84</v>
+      <c r="A117" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D117" s="3">
         <v>1E-3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="31" t="s">
-        <v>84</v>
+      <c r="A118" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -15266,15 +14648,15 @@
         <v>1E-3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="31" t="s">
-        <v>84</v>
+      <c r="A119" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -15282,53 +14664,53 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="31" t="s">
-        <v>84</v>
+      <c r="A120" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D120" s="3">
         <v>1E-3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="31" t="s">
-        <v>84</v>
+      <c r="A121" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="3" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="31" t="s">
-        <v>84</v>
+      <c r="A122" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
@@ -15340,15 +14722,15 @@
         <v>1E-3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="31" t="s">
-        <v>84</v>
+      <c r="A123" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -15356,149 +14738,149 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="31" t="s">
-        <v>84</v>
+      <c r="A124" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D124" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="31" t="s">
-        <v>84</v>
+      <c r="A125" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="D125" s="3">
         <v>1E-3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="31" t="s">
-        <v>84</v>
+      <c r="A126" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="3" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="31" t="s">
-        <v>84</v>
+      <c r="A127" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="D127" s="3">
         <v>2E-3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="31" t="s">
-        <v>84</v>
+      <c r="A128" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D128" s="3">
         <v>2E-3</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="31" t="s">
-        <v>84</v>
+      <c r="A129" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="3" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="31" t="s">
-        <v>84</v>
+      <c r="A130" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="3" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="31" t="s">
-        <v>84</v>
+      <c r="A131" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -15506,33 +14888,33 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="31" t="s">
-        <v>84</v>
+      <c r="A132" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="3" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="31" t="s">
-        <v>84</v>
+      <c r="A133" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -15540,15 +14922,15 @@
         <v>1E-3</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="31" t="s">
-        <v>84</v>
+      <c r="A134" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4</v>
@@ -15560,339 +14942,339 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="31" t="s">
-        <v>84</v>
+      <c r="A135" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="3" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="31" t="s">
-        <v>84</v>
+      <c r="A136" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="3" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="31" t="s">
-        <v>84</v>
+      <c r="A137" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D137" s="3">
         <v>2E-3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="31" t="s">
-        <v>84</v>
+      <c r="A138" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D138" s="3">
         <v>2E-3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="31" t="s">
-        <v>84</v>
+      <c r="A139" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D139" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="31" t="s">
-        <v>84</v>
+      <c r="A140" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="31" t="s">
-        <v>84</v>
+      <c r="A141" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D141" s="3">
         <v>1E-3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="31" t="s">
-        <v>84</v>
+      <c r="A142" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="D142" s="3">
         <v>1E-3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="31" t="s">
-        <v>84</v>
+      <c r="A143" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="3" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="31" t="s">
-        <v>84</v>
+      <c r="A144" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="3" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="31" t="s">
-        <v>84</v>
+      <c r="A145" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="3" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="31" t="s">
-        <v>84</v>
+      <c r="A146" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="3" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="31" t="s">
-        <v>84</v>
+      <c r="A147" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="3" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="30" t="s">
-        <v>86</v>
+      <c r="A148" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="D148" s="3">
         <v>2E-3</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="30" t="s">
-        <v>86</v>
+      <c r="A149" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="D149" s="3">
         <v>1E-3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="30" t="s">
-        <v>86</v>
+      <c r="A150" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D150" s="3">
         <v>1E-3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="30" t="s">
-        <v>86</v>
+      <c r="A151" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D151" s="3">
         <v>2E-3</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>408</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="30" t="s">
-        <v>86</v>
+      <c r="A152" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>4</v>
@@ -15907,12 +15289,12 @@
         <v>53</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>409</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="30" t="s">
-        <v>90</v>
+      <c r="A153" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>4</v>
@@ -15927,12 +15309,12 @@
         <v>9</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="30" t="s">
-        <v>90</v>
+      <c r="A154" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -15940,15 +15322,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="30" t="s">
-        <v>90</v>
+      <c r="A155" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>4</v>
@@ -15960,113 +15342,113 @@
         <v>1E-3</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="30" t="s">
-        <v>90</v>
+      <c r="A156" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="D156" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="30" t="s">
-        <v>90</v>
+      <c r="A157" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D157" s="3">
         <v>2E-3</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="30" t="s">
-        <v>90</v>
+      <c r="A158" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="3" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="30" t="s">
-        <v>90</v>
+      <c r="A159" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="D159" s="3">
         <v>2E-3</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="30" t="s">
-        <v>90</v>
+      <c r="A160" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="D160" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="30" t="s">
-        <v>93</v>
+      <c r="A161" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
@@ -16078,15 +15460,15 @@
         <v>1E-3</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="30" t="s">
-        <v>93</v>
+      <c r="A162" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -16094,15 +15476,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="30" t="s">
-        <v>93</v>
+      <c r="A163" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -16110,15 +15492,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="30" t="s">
-        <v>93</v>
+      <c r="A164" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
@@ -16130,35 +15512,35 @@
         <v>1E-3</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="30" t="s">
-        <v>93</v>
+      <c r="A165" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="D165" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="30" t="s">
-        <v>93</v>
+      <c r="A166" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
@@ -16171,50 +15553,50 @@
         <v>26</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="30" t="s">
-        <v>93</v>
+      <c r="A167" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="30" t="s">
-        <v>93</v>
+      <c r="A168" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D168" s="3">
         <v>1E-3</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="30" t="s">
-        <v>93</v>
+      <c r="A169" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -16222,35 +15604,35 @@
         <v>2E-3</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="30" t="s">
-        <v>93</v>
+      <c r="A170" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="D170" s="3">
         <v>2E-3</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="30" t="s">
-        <v>93</v>
+      <c r="A171" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>4</v>
@@ -16263,32 +15645,32 @@
         <v>35</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="30" t="s">
-        <v>93</v>
+      <c r="A172" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D172" s="3">
         <v>1E-3</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="30" t="s">
-        <v>93</v>
+      <c r="A173" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -16296,35 +15678,35 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="30" t="s">
-        <v>93</v>
+      <c r="A174" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="D174" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="30" t="s">
-        <v>93</v>
+      <c r="A175" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
@@ -16339,196 +15721,196 @@
         <v>64</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="30" t="s">
-        <v>93</v>
+      <c r="A176" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="D176" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="30" t="s">
-        <v>93</v>
+      <c r="A177" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="30" t="s">
-        <v>93</v>
+      <c r="A178" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="3" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="30" t="s">
-        <v>93</v>
+      <c r="A179" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D179" s="3">
         <v>2E-3</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="31" t="s">
-        <v>96</v>
+      <c r="A180" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F180" s="38" t="s">
-        <v>457</v>
+        <v>389</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="31" t="s">
-        <v>96</v>
+      <c r="A181" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F181" s="38" t="s">
-        <v>460</v>
+        <v>392</v>
+      </c>
+      <c r="F181" s="28" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="31" t="s">
-        <v>96</v>
+      <c r="A182" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F182" s="38" t="s">
-        <v>463</v>
+        <v>395</v>
+      </c>
+      <c r="F182" s="28" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="31" t="s">
-        <v>96</v>
+      <c r="A183" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F183" s="38" t="s">
-        <v>466</v>
+        <v>398</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="31" t="s">
-        <v>96</v>
+      <c r="A184" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F184" s="38" t="s">
-        <v>469</v>
+        <v>401</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="31" t="s">
-        <v>96</v>
+      <c r="A185" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F185" s="38" t="s">
-        <v>472</v>
+        <v>404</v>
+      </c>
+      <c r="F185" s="28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="30" t="s">
-        <v>99</v>
+      <c r="A186" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>4</v>
@@ -16540,15 +15922,15 @@
         <v>1E-3</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="30" t="s">
-        <v>99</v>
+      <c r="A187" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>4</v>
@@ -16560,15 +15942,15 @@
         <v>2E-3</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="30" t="s">
-        <v>99</v>
+      <c r="A188" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -16576,95 +15958,95 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="30" t="s">
-        <v>99</v>
+      <c r="A189" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D189" s="3">
         <v>2E-3</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="30" t="s">
-        <v>99</v>
+      <c r="A190" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D190" s="3">
         <v>1E-3</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="30" t="s">
-        <v>99</v>
+      <c r="A191" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D191" s="3">
         <v>2E-3</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="30" t="s">
-        <v>102</v>
+      <c r="A192" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D192" s="3">
         <v>1E-3</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="30" t="s">
-        <v>102</v>
+      <c r="A193" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -16672,15 +16054,15 @@
         <v>2E-3</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="30" t="s">
-        <v>102</v>
+      <c r="A194" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
@@ -16695,30 +16077,30 @@
         <v>9</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="30" t="s">
-        <v>102</v>
+      <c r="A195" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="3" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="30" t="s">
-        <v>102</v>
+      <c r="A196" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
@@ -16731,12 +16113,12 @@
         <v>15</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="30" t="s">
-        <v>102</v>
+      <c r="A197" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
@@ -16746,15 +16128,15 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="30" t="s">
-        <v>102</v>
+      <c r="A198" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -16762,15 +16144,15 @@
         <v>1E-3</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="30" t="s">
-        <v>102</v>
+      <c r="A199" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -16778,93 +16160,93 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="30" t="s">
-        <v>102</v>
+      <c r="A200" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D200" s="3">
         <v>1E-3</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="30" t="s">
-        <v>102</v>
+      <c r="A201" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D201" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="30" t="s">
-        <v>102</v>
+      <c r="A202" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="D202" s="10"/>
       <c r="E202" s="3" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="30" t="s">
-        <v>102</v>
+      <c r="A203" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="D203" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="30" t="s">
-        <v>102</v>
+      <c r="A204" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
@@ -16877,48 +16259,48 @@
         <v>26</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="30" t="s">
-        <v>102</v>
+      <c r="A205" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="D205" s="10"/>
       <c r="E205" s="3" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="30" t="s">
-        <v>102</v>
+      <c r="A206" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="3" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="30" t="s">
-        <v>102</v>
+      <c r="A207" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -16926,35 +16308,35 @@
         <v>1E-3</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="30" t="s">
-        <v>102</v>
+      <c r="A208" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="D208" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="30" t="s">
-        <v>102</v>
+      <c r="A209" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>4</v>
@@ -16967,66 +16349,66 @@
         <v>38</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="30" t="s">
-        <v>102</v>
+      <c r="A210" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="D210" s="10"/>
       <c r="E210" s="3" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="30" t="s">
-        <v>102</v>
+      <c r="A211" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D211" s="10"/>
       <c r="E211" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="30" t="s">
-        <v>102</v>
+      <c r="A212" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D212" s="10"/>
       <c r="E212" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="30" t="s">
-        <v>102</v>
+      <c r="A213" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>4</v>
@@ -17038,15 +16420,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="30" t="s">
-        <v>102</v>
+      <c r="A214" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -17054,15 +16436,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="30" t="s">
-        <v>102</v>
+      <c r="A215" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
@@ -17075,32 +16457,32 @@
         <v>50</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="30" t="s">
-        <v>102</v>
+      <c r="A216" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D216" s="3">
         <v>0.01</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="30" t="s">
-        <v>102</v>
+      <c r="A217" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -17108,15 +16490,15 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="30" t="s">
-        <v>102</v>
+      <c r="A218" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>4</v>
@@ -17131,12 +16513,12 @@
         <v>53</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="30" t="s">
-        <v>102</v>
+      <c r="A219" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -17144,69 +16526,69 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="30" t="s">
-        <v>102</v>
+      <c r="A220" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="3" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="30" t="s">
-        <v>102</v>
+      <c r="A221" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="3" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="30" t="s">
-        <v>102</v>
+      <c r="A222" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="3" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="30" t="s">
-        <v>102</v>
+      <c r="A223" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>4</v>
@@ -17221,12 +16603,12 @@
         <v>58</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="30" t="s">
-        <v>102</v>
+      <c r="A224" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -17234,15 +16616,15 @@
         <v>2E-3</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="30" t="s">
-        <v>102</v>
+      <c r="A225" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -17250,15 +16632,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="30" t="s">
-        <v>102</v>
+      <c r="A226" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -17266,15 +16648,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="30" t="s">
-        <v>102</v>
+      <c r="A227" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>4</v>
@@ -17287,32 +16669,32 @@
         <v>61</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="30" t="s">
-        <v>102</v>
+      <c r="A228" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D228" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="30" t="s">
-        <v>102</v>
+      <c r="A229" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>4</v>
@@ -17327,32 +16709,32 @@
         <v>64</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="30" t="s">
-        <v>102</v>
+      <c r="A230" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D230" s="3">
         <v>1E-3</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="30" t="s">
-        <v>102</v>
+      <c r="A231" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
@@ -17362,111 +16744,111 @@
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="30" t="s">
-        <v>102</v>
+      <c r="A232" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="3" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="30" t="s">
-        <v>105</v>
+      <c r="A233" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="D233" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F233" s="38" t="s">
-        <v>541</v>
+        <v>216</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="30" t="s">
-        <v>105</v>
+      <c r="A234" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D234" s="3">
         <v>1E-3</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F234" s="38" t="s">
-        <v>542</v>
+        <v>90</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="30" t="s">
-        <v>105</v>
+      <c r="A235" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D235" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="30" t="s">
-        <v>105</v>
+      <c r="A236" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D236" s="10"/>
       <c r="E236" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F236" s="38" t="s">
-        <v>544</v>
+        <v>169</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="30" t="s">
-        <v>107</v>
+      <c r="A237" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
@@ -17478,15 +16860,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="30" t="s">
-        <v>107</v>
+      <c r="A238" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>4</v>
@@ -17498,53 +16880,53 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="30" t="s">
-        <v>107</v>
+      <c r="A239" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D239" s="3">
         <v>1E-3</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="30" t="s">
-        <v>107</v>
+      <c r="A240" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D240" s="11"/>
       <c r="E240" s="3" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="30" t="s">
-        <v>107</v>
+      <c r="A241" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -17552,71 +16934,71 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="30" t="s">
-        <v>107</v>
+      <c r="A242" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="3" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="30" t="s">
-        <v>107</v>
+      <c r="A243" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="D243" s="3">
         <v>2E-3</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="30" t="s">
-        <v>107</v>
+      <c r="A244" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="30" t="s">
-        <v>107</v>
+      <c r="A245" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
@@ -17629,52 +17011,52 @@
         <v>50</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="30" t="s">
-        <v>107</v>
+      <c r="A246" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D246" s="3">
         <v>0.01</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="30" t="s">
-        <v>107</v>
+      <c r="A247" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D247" s="3">
         <v>2E-3</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="30" t="s">
-        <v>107</v>
+      <c r="A248" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
@@ -17689,12 +17071,12 @@
         <v>53</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="30" t="s">
-        <v>107</v>
+      <c r="A249" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -17702,15 +17084,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="30" t="s">
-        <v>107</v>
+      <c r="A250" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -17718,35 +17100,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="30" t="s">
-        <v>107</v>
+      <c r="A251" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="D251" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="30" t="s">
-        <v>107</v>
+      <c r="A252" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>4</v>
@@ -17759,72 +17141,72 @@
         <v>61</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="30" t="s">
-        <v>107</v>
+      <c r="A253" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D253" s="3">
         <v>1E-3</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="30" t="s">
-        <v>111</v>
+      <c r="A254" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D254" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="30" t="s">
-        <v>111</v>
+      <c r="A255" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="D255" s="3">
         <v>2E-3</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="30" t="s">
-        <v>111</v>
+      <c r="A256" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -17832,15 +17214,15 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="30" t="s">
-        <v>111</v>
+      <c r="A257" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
@@ -17852,15 +17234,15 @@
         <v>1E-3</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="30" t="s">
-        <v>111</v>
+      <c r="A258" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -17868,53 +17250,53 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="30" t="s">
-        <v>111</v>
+      <c r="A259" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="D259" s="3">
         <v>2E-3</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="30" t="s">
-        <v>111</v>
+      <c r="A260" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="3" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="30" t="s">
-        <v>111</v>
+      <c r="A261" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -17922,15 +17304,15 @@
         <v>1E-3</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="30" t="s">
-        <v>111</v>
+      <c r="A262" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>4</v>
@@ -17945,32 +17327,32 @@
         <v>9</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="30" t="s">
-        <v>111</v>
+      <c r="A263" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D263" s="3">
         <v>1E-3</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="30" t="s">
-        <v>111</v>
+      <c r="A264" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>4</v>
@@ -17982,15 +17364,15 @@
         <v>1E-3</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="30" t="s">
-        <v>111</v>
+      <c r="A265" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -18001,12 +17383,12 @@
         <v>20</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="30" t="s">
-        <v>111</v>
+      <c r="A266" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -18014,93 +17396,93 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="30" t="s">
-        <v>111</v>
+      <c r="A267" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
       <c r="D267" s="3">
         <v>2E-3</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="30" t="s">
-        <v>111</v>
+      <c r="A268" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="D268" s="3">
         <v>1E-3</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>588</v>
+        <v>521</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="30" t="s">
-        <v>111</v>
+      <c r="A269" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D269" s="3">
         <v>1E-3</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="30" t="s">
-        <v>111</v>
+      <c r="A270" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="D270" s="10"/>
       <c r="E270" s="3" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="30" t="s">
-        <v>111</v>
+      <c r="A271" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>4</v>
@@ -18113,66 +17495,66 @@
         <v>26</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="30" t="s">
-        <v>111</v>
+      <c r="A272" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="D272" s="10"/>
       <c r="E272" s="3" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="30" t="s">
-        <v>111</v>
+      <c r="A273" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="D273" s="10"/>
       <c r="E273" s="3" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="30" t="s">
-        <v>111</v>
+      <c r="A274" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="30" t="s">
-        <v>111</v>
+      <c r="A275" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -18180,15 +17562,15 @@
         <v>1E-3</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="30" t="s">
-        <v>111</v>
+      <c r="A276" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -18196,53 +17578,53 @@
         <v>2E-3</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="30" t="s">
-        <v>111</v>
+      <c r="A277" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="D277" s="10"/>
       <c r="E277" s="3" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="30" t="s">
-        <v>111</v>
+      <c r="A278" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D278" s="3">
         <v>1E-3</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="30" t="s">
-        <v>111</v>
+      <c r="A279" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -18250,33 +17632,33 @@
         <v>2E-3</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="30" t="s">
-        <v>111</v>
+      <c r="A280" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="D280" s="10"/>
       <c r="E280" s="3" t="s">
-        <v>610</v>
+        <v>543</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="30" t="s">
-        <v>111</v>
+      <c r="A281" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>4</v>
@@ -18289,68 +17671,68 @@
         <v>38</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="30" t="s">
-        <v>111</v>
+      <c r="A282" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D282" s="10"/>
       <c r="E282" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>613</v>
+        <v>546</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="30" t="s">
-        <v>111</v>
+      <c r="A283" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="D283" s="3">
         <v>2E-3</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="30" t="s">
-        <v>111</v>
+      <c r="A284" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="30" t="s">
-        <v>111</v>
+      <c r="A285" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -18358,15 +17740,15 @@
         <v>1E-3</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="30" t="s">
-        <v>111</v>
+      <c r="A286" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -18374,75 +17756,75 @@
         <v>2E-3</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="30" t="s">
-        <v>111</v>
+      <c r="A287" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
       <c r="D287" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="30" t="s">
-        <v>111</v>
+      <c r="A288" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="D288" s="3">
         <v>1E-3</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="30" t="s">
-        <v>111</v>
+      <c r="A289" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="D289" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="30" t="s">
-        <v>111</v>
+      <c r="A290" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>4</v>
@@ -18452,15 +17834,15 @@
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="30" t="s">
-        <v>111</v>
+      <c r="A291" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -18468,15 +17850,15 @@
         <v>1E-3</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="30" t="s">
-        <v>111</v>
+      <c r="A292" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -18484,15 +17866,15 @@
         <v>2E-3</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>635</v>
+        <v>568</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="30" t="s">
-        <v>111</v>
+      <c r="A293" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -18500,35 +17882,35 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="30" t="s">
-        <v>111</v>
+      <c r="A294" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="D294" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="30" t="s">
-        <v>111</v>
+      <c r="A295" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -18536,53 +17918,53 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="30" t="s">
-        <v>111</v>
+      <c r="A296" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D296" s="10"/>
       <c r="E296" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="30" t="s">
-        <v>111</v>
+      <c r="A297" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D297" s="3">
         <v>1E-3</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="30" t="s">
-        <v>111</v>
+      <c r="A298" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>4</v>
@@ -18595,12 +17977,12 @@
         <v>44</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="30" t="s">
-        <v>111</v>
+      <c r="A299" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>4</v>
@@ -18612,15 +17994,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>645</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="30" t="s">
-        <v>111</v>
+      <c r="A300" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -18628,15 +18010,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="30" t="s">
-        <v>111</v>
+      <c r="A301" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -18644,33 +18026,33 @@
         <v>0.01</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="30" t="s">
-        <v>111</v>
+      <c r="A302" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="D302" s="10"/>
       <c r="E302" s="3" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="30" t="s">
-        <v>111</v>
+      <c r="A303" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>4</v>
@@ -18683,50 +18065,50 @@
         <v>50</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="30" t="s">
-        <v>111</v>
+      <c r="A304" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="D304" s="10"/>
       <c r="E304" s="3" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="30" t="s">
-        <v>111</v>
+      <c r="A305" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D305" s="3">
         <v>0.01</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="30" t="s">
-        <v>111</v>
+      <c r="A306" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -18734,35 +18116,35 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="30" t="s">
-        <v>111</v>
+      <c r="A307" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D307" s="3">
         <v>2E-3</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="30" t="s">
-        <v>111</v>
+      <c r="A308" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>4</v>
@@ -18777,32 +18159,32 @@
         <v>53</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A309" s="30" t="s">
-        <v>111</v>
+      <c r="A309" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D309" s="3">
         <v>2E-3</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="30" t="s">
-        <v>111</v>
+      <c r="A310" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -18810,89 +18192,89 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="30" t="s">
-        <v>111</v>
+      <c r="A311" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="D311" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="30" t="s">
-        <v>111</v>
+      <c r="A312" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="D312" s="10"/>
       <c r="E312" s="3" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="30" t="s">
-        <v>111</v>
+      <c r="A313" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="3" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="30" t="s">
-        <v>111</v>
+      <c r="A314" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="D314" s="10"/>
       <c r="E314" s="3" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="30" t="s">
-        <v>111</v>
+      <c r="A315" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>4</v>
@@ -18907,12 +18289,12 @@
         <v>58</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="30" t="s">
-        <v>111</v>
+      <c r="A316" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>4</v>
@@ -18925,50 +18307,50 @@
         <v>61</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>664</v>
+        <v>597</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="30" t="s">
-        <v>111</v>
+      <c r="A317" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="D317" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A318" s="30" t="s">
-        <v>111</v>
+      <c r="A318" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D318" s="10"/>
       <c r="E318" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="30" t="s">
-        <v>111</v>
+      <c r="A319" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>4</v>
@@ -18983,68 +18365,68 @@
         <v>64</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>667</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A320" s="30" t="s">
-        <v>111</v>
+      <c r="A320" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="D320" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>668</v>
+        <v>601</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A321" s="30" t="s">
-        <v>111</v>
+      <c r="A321" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="D321" s="10"/>
       <c r="E321" s="3" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A322" s="30" t="s">
-        <v>111</v>
+      <c r="A322" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="D322" s="11"/>
       <c r="E322" s="3" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="30" t="s">
-        <v>111</v>
+      <c r="A323" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -19052,15 +18434,15 @@
         <v>1E-3</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="30" t="s">
-        <v>111</v>
+      <c r="A324" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -19068,71 +18450,71 @@
         <v>2E-3</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="30" t="s">
-        <v>111</v>
+      <c r="A325" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="3" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A326" s="30" t="s">
-        <v>111</v>
+      <c r="A326" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="3" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="30" t="s">
-        <v>111</v>
+      <c r="A327" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D327" s="3">
         <v>1E-3</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A328" s="30" t="s">
-        <v>111</v>
+      <c r="A328" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -19140,15 +18522,15 @@
         <v>2E-3</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A329" s="30" t="s">
-        <v>111</v>
+      <c r="A329" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>4</v>
@@ -19160,15 +18542,15 @@
         <v>1E-3</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A330" s="30" t="s">
-        <v>111</v>
+      <c r="A330" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -19179,45 +18561,45 @@
         <v>67</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A331" s="30" t="s">
-        <v>111</v>
+      <c r="A331" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="D331" s="3">
         <v>2E-3</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>684</v>
+        <v>617</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="30" t="s">
-        <v>111</v>
+      <c r="A332" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="D332" s="10"/>
       <c r="E332" s="3" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -19342,7 +18724,7 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://attack.mitre.org/techniques/T1583" xr:uid="{FEF6CF1F-6C69-46F9-BA6B-B967B47BEB26}"/>
     <hyperlink ref="E2" r:id="rId2" display="https://attack.mitre.org/techniques/T1583" xr:uid="{CDC4D657-075D-48DE-B1EB-09BE20C4D237}"/>
